--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mdk-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H2">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J2">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>46.82259142409701</v>
+        <v>117.3279611918387</v>
       </c>
       <c r="R2">
-        <v>46.82259142409701</v>
+        <v>1055.951650726548</v>
       </c>
       <c r="S2">
-        <v>0.0044756628021787</v>
+        <v>0.006540629097205007</v>
       </c>
       <c r="T2">
-        <v>0.0044756628021787</v>
+        <v>0.006540629097205009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H3">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J3">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>92.89625367735722</v>
+        <v>180.2513819022898</v>
       </c>
       <c r="R3">
-        <v>92.89625367735722</v>
+        <v>1622.262437120608</v>
       </c>
       <c r="S3">
-        <v>0.008879737203770591</v>
+        <v>0.01004839273865723</v>
       </c>
       <c r="T3">
-        <v>0.008879737203770591</v>
+        <v>0.01004839273865723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H4">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I4">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J4">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>43.61098287930209</v>
+        <v>90.07035530126576</v>
       </c>
       <c r="R4">
-        <v>43.61098287930209</v>
+        <v>810.633197711392</v>
       </c>
       <c r="S4">
-        <v>0.004168672598050436</v>
+        <v>0.00502111159773593</v>
       </c>
       <c r="T4">
-        <v>0.004168672598050436</v>
+        <v>0.005021111597735931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H5">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I5">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J5">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>48.94965805127395</v>
+        <v>94.53839508132889</v>
       </c>
       <c r="R5">
-        <v>48.94965805127395</v>
+        <v>850.8455557319601</v>
       </c>
       <c r="S5">
-        <v>0.004678984162476416</v>
+        <v>0.005270189402345245</v>
       </c>
       <c r="T5">
-        <v>0.004678984162476416</v>
+        <v>0.005270189402345248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H6">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I6">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J6">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>36.55315914078436</v>
+        <v>72.01434000652532</v>
       </c>
       <c r="R6">
-        <v>36.55315914078436</v>
+        <v>648.129060058728</v>
       </c>
       <c r="S6">
-        <v>0.003494031613643904</v>
+        <v>0.00401455103180859</v>
       </c>
       <c r="T6">
-        <v>0.003494031613643904</v>
+        <v>0.004014551031808591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.64115168223275</v>
+        <v>1.237638666666667</v>
       </c>
       <c r="H7">
-        <v>0.64115168223275</v>
+        <v>3.712916</v>
       </c>
       <c r="I7">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925432</v>
       </c>
       <c r="J7">
-        <v>0.03230056020388278</v>
+        <v>0.03888686536925433</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>69.08287707332828</v>
+        <v>143.3629785144778</v>
       </c>
       <c r="R7">
-        <v>69.08287707332828</v>
+        <v>1290.2668066303</v>
       </c>
       <c r="S7">
-        <v>0.006603471823762732</v>
+        <v>0.007991991501502328</v>
       </c>
       <c r="T7">
-        <v>0.006603471823762732</v>
+        <v>0.00799199150150233</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H8">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I8">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J8">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>262.3946507805164</v>
+        <v>345.493222177099</v>
       </c>
       <c r="R8">
-        <v>262.3946507805164</v>
+        <v>3109.438999593892</v>
       </c>
       <c r="S8">
-        <v>0.02508169544380736</v>
+        <v>0.01926005530909913</v>
       </c>
       <c r="T8">
-        <v>0.02508169544380736</v>
+        <v>0.01926005530909913</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H9">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I9">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J9">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>520.5922889168345</v>
+        <v>530.7825185291706</v>
       </c>
       <c r="R9">
-        <v>520.5922889168345</v>
+        <v>4777.042666762536</v>
       </c>
       <c r="S9">
-        <v>0.04976220819352222</v>
+        <v>0.02958929439933998</v>
       </c>
       <c r="T9">
-        <v>0.04976220819352222</v>
+        <v>0.02958929439933998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H10">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I10">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J10">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>244.3967383001428</v>
+        <v>265.2283135201627</v>
       </c>
       <c r="R10">
-        <v>244.3967383001428</v>
+        <v>2387.054821681464</v>
       </c>
       <c r="S10">
-        <v>0.02336131677711486</v>
+        <v>0.0147855635365226</v>
       </c>
       <c r="T10">
-        <v>0.02336131677711486</v>
+        <v>0.0147855635365226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H11">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I11">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J11">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>274.3147707023228</v>
+        <v>278.3852579070634</v>
       </c>
       <c r="R11">
-        <v>274.3147707023228</v>
+        <v>2505.46732116357</v>
       </c>
       <c r="S11">
-        <v>0.02622111203116186</v>
+        <v>0.01551901779936934</v>
       </c>
       <c r="T11">
-        <v>0.02622111203116186</v>
+        <v>0.01551901779936934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H12">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I12">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J12">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>204.8445661795346</v>
+        <v>212.059138495814</v>
       </c>
       <c r="R12">
-        <v>204.8445661795346</v>
+        <v>1908.532246462326</v>
       </c>
       <c r="S12">
-        <v>0.01958061647579681</v>
+        <v>0.01182156544343351</v>
       </c>
       <c r="T12">
-        <v>0.01958061647579681</v>
+        <v>0.01182156544343351</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.59302564509964</v>
+        <v>3.644449</v>
       </c>
       <c r="H13">
-        <v>3.59302564509964</v>
+        <v>10.933347</v>
       </c>
       <c r="I13">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="J13">
-        <v>0.1810129246787267</v>
+        <v>0.1145093486694395</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>387.1416949220874</v>
+        <v>422.1579995486916</v>
       </c>
       <c r="R13">
-        <v>387.1416949220874</v>
+        <v>3799.421995938225</v>
       </c>
       <c r="S13">
-        <v>0.0370059757573236</v>
+        <v>0.02353385218167499</v>
       </c>
       <c r="T13">
-        <v>0.0370059757573236</v>
+        <v>0.02353385218167499</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H14">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I14">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J14">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>334.6882357884764</v>
+        <v>158.4575401471457</v>
       </c>
       <c r="R14">
-        <v>334.6882357884764</v>
+        <v>1426.117861324311</v>
       </c>
       <c r="S14">
-        <v>0.03199207138446389</v>
+        <v>0.008833461241718436</v>
       </c>
       <c r="T14">
-        <v>0.03199207138446389</v>
+        <v>0.008833461241718436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H15">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I15">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J15">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>664.0231202289348</v>
+        <v>243.4389065847618</v>
       </c>
       <c r="R15">
-        <v>664.0231202289348</v>
+        <v>2190.950159262856</v>
       </c>
       <c r="S15">
-        <v>0.06347242834290848</v>
+        <v>0.01357087926548596</v>
       </c>
       <c r="T15">
-        <v>0.06347242834290848</v>
+        <v>0.01357087926548596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H16">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I16">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J16">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>311.7316337464241</v>
+        <v>121.6447196067938</v>
       </c>
       <c r="R16">
-        <v>311.7316337464241</v>
+        <v>1094.802476461144</v>
       </c>
       <c r="S16">
-        <v>0.02979770309558794</v>
+        <v>0.006781273487575818</v>
       </c>
       <c r="T16">
-        <v>0.02979770309558794</v>
+        <v>0.006781273487575817</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H17">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I17">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J17">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>349.8925240433981</v>
+        <v>127.6790407152189</v>
       </c>
       <c r="R17">
-        <v>349.8925240433981</v>
+        <v>1149.11136643697</v>
       </c>
       <c r="S17">
-        <v>0.03344541399764386</v>
+        <v>0.007117666073134434</v>
       </c>
       <c r="T17">
-        <v>0.03344541399764386</v>
+        <v>0.007117666073134434</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H18">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I18">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J18">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>261.2822565610587</v>
+        <v>97.25912780582733</v>
       </c>
       <c r="R18">
-        <v>261.2822565610587</v>
+        <v>875.3321502524459</v>
       </c>
       <c r="S18">
-        <v>0.02497536426311104</v>
+        <v>0.005421860866187322</v>
       </c>
       <c r="T18">
-        <v>0.02497536426311104</v>
+        <v>0.005421860866187322</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>4.58295704856817</v>
+        <v>1.671495666666667</v>
       </c>
       <c r="H19">
-        <v>4.58295704856817</v>
+        <v>5.014487</v>
       </c>
       <c r="I19">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389195</v>
       </c>
       <c r="J19">
-        <v>0.2308846473639084</v>
+        <v>0.05251874291389194</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>493.8049250935993</v>
+        <v>193.6191909653027</v>
       </c>
       <c r="R19">
-        <v>493.8049250935993</v>
+        <v>1742.572718687725</v>
       </c>
       <c r="S19">
-        <v>0.04720166628019318</v>
+        <v>0.01079360197978999</v>
       </c>
       <c r="T19">
-        <v>0.04720166628019318</v>
+        <v>0.01079360197978998</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H20">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I20">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J20">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>805.6852141977089</v>
+        <v>218.6667267144147</v>
       </c>
       <c r="R20">
-        <v>805.6852141977089</v>
+        <v>1968.000540429732</v>
       </c>
       <c r="S20">
-        <v>0.07701357899627631</v>
+        <v>0.0121899156928192</v>
       </c>
       <c r="T20">
-        <v>0.07701357899627631</v>
+        <v>0.0121899156928192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H21">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I21">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J21">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>1598.483462059889</v>
+        <v>335.9385032002524</v>
       </c>
       <c r="R21">
-        <v>1598.483462059889</v>
+        <v>3023.446528802272</v>
       </c>
       <c r="S21">
-        <v>0.1527953228013212</v>
+        <v>0.01872741268648167</v>
       </c>
       <c r="T21">
-        <v>0.1527953228013212</v>
+        <v>0.01872741268648167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H22">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I22">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J22">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>750.4224566349008</v>
+        <v>167.8661213206364</v>
       </c>
       <c r="R22">
-        <v>750.4224566349008</v>
+        <v>1510.795091885728</v>
       </c>
       <c r="S22">
-        <v>0.07173114030916022</v>
+        <v>0.009357957185921627</v>
       </c>
       <c r="T22">
-        <v>0.07173114030916022</v>
+        <v>0.009357957185921627</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H23">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I23">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J23">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>842.2860532159414</v>
+        <v>176.1933062781822</v>
       </c>
       <c r="R23">
-        <v>842.2860532159414</v>
+        <v>1585.73975650364</v>
       </c>
       <c r="S23">
-        <v>0.080512168218703</v>
+        <v>0.009822169021513638</v>
       </c>
       <c r="T23">
-        <v>0.080512168218703</v>
+        <v>0.00982216902151364</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>11.0324186406963</v>
+        <v>2.306614666666666</v>
       </c>
       <c r="H24">
-        <v>11.0324186406963</v>
+        <v>6.919843999999999</v>
       </c>
       <c r="I24">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="J24">
-        <v>0.5558018677534822</v>
+        <v>0.07247431452913082</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>628.9771444984423</v>
+        <v>134.2147246552613</v>
       </c>
       <c r="R24">
-        <v>628.9771444984423</v>
+        <v>1207.932521897352</v>
       </c>
       <c r="S24">
-        <v>0.06012246489209659</v>
+        <v>0.007482007907034385</v>
       </c>
       <c r="T24">
-        <v>0.06012246489209659</v>
+        <v>0.007482007907034386</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>2.306614666666666</v>
+      </c>
+      <c r="H25">
+        <v>6.919843999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="J25">
+        <v>0.07247431452913082</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>267.1887666447444</v>
+      </c>
+      <c r="R25">
+        <v>2404.6988998027</v>
+      </c>
+      <c r="S25">
+        <v>0.01489485203536031</v>
+      </c>
+      <c r="T25">
+        <v>0.01489485203536031</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H26">
+        <v>13.913504</v>
+      </c>
+      <c r="I26">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J26">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>439.6660353626347</v>
+      </c>
+      <c r="R26">
+        <v>3956.994318263712</v>
+      </c>
+      <c r="S26">
+        <v>0.02450986478187986</v>
+      </c>
+      <c r="T26">
+        <v>0.02450986478187987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H27">
+        <v>13.913504</v>
+      </c>
+      <c r="I27">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J27">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>675.460560676039</v>
+      </c>
+      <c r="R27">
+        <v>6079.145046084352</v>
+      </c>
+      <c r="S27">
+        <v>0.03765459616185184</v>
+      </c>
+      <c r="T27">
+        <v>0.03765459616185184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H28">
+        <v>13.913504</v>
+      </c>
+      <c r="I28">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J28">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>337.5229196581831</v>
+      </c>
+      <c r="R28">
+        <v>3037.706276923648</v>
+      </c>
+      <c r="S28">
+        <v>0.01881573843834475</v>
+      </c>
+      <c r="T28">
+        <v>0.01881573843834475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H29">
+        <v>13.913504</v>
+      </c>
+      <c r="I29">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J29">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>354.2661180909155</v>
+      </c>
+      <c r="R29">
+        <v>3188.39506281824</v>
+      </c>
+      <c r="S29">
+        <v>0.01974911399296084</v>
+      </c>
+      <c r="T29">
+        <v>0.01974911399296084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H30">
+        <v>13.913504</v>
+      </c>
+      <c r="I30">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J30">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>269.8611570361813</v>
+      </c>
+      <c r="R30">
+        <v>2428.750413325632</v>
+      </c>
+      <c r="S30">
+        <v>0.01504382858089786</v>
+      </c>
+      <c r="T30">
+        <v>0.01504382858089786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.637834666666667</v>
+      </c>
+      <c r="H31">
+        <v>13.913504</v>
+      </c>
+      <c r="I31">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="J31">
+        <v>0.1457217337700561</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>537.227714015911</v>
+      </c>
+      <c r="R31">
+        <v>4835.0494261432</v>
+      </c>
+      <c r="S31">
+        <v>0.02994859181412093</v>
+      </c>
+      <c r="T31">
+        <v>0.02994859181412093</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H32">
+        <v>54.985853</v>
+      </c>
+      <c r="I32">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J32">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.799851</v>
+      </c>
+      <c r="N32">
+        <v>284.399553</v>
+      </c>
+      <c r="O32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q32">
+        <v>1737.550223835968</v>
+      </c>
+      <c r="R32">
+        <v>15637.95201452371</v>
+      </c>
+      <c r="S32">
+        <v>0.09686243105592404</v>
+      </c>
+      <c r="T32">
+        <v>0.09686243105592406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H33">
+        <v>54.985853</v>
+      </c>
+      <c r="I33">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J33">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P33">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q33">
+        <v>2669.404852769674</v>
+      </c>
+      <c r="R33">
+        <v>24024.64367492706</v>
+      </c>
+      <c r="S33">
+        <v>0.148810112055881</v>
+      </c>
+      <c r="T33">
+        <v>0.1488101120558811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H34">
+        <v>54.985853</v>
+      </c>
+      <c r="I34">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J34">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N34">
+        <v>218.327912</v>
+      </c>
+      <c r="O34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q34">
+        <v>1333.882941669882</v>
+      </c>
+      <c r="R34">
+        <v>12004.94647502894</v>
+      </c>
+      <c r="S34">
+        <v>0.07435937258200913</v>
+      </c>
+      <c r="T34">
+        <v>0.07435937258200913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="H25">
-        <v>11.0324186406963</v>
-      </c>
-      <c r="I25">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="J25">
-        <v>0.5558018677534822</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N25">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P25">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q25">
-        <v>1188.722172766667</v>
-      </c>
-      <c r="R25">
-        <v>1188.722172766667</v>
-      </c>
-      <c r="S25">
-        <v>0.1136271925359248</v>
-      </c>
-      <c r="T25">
-        <v>0.1136271925359248</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H35">
+        <v>54.985853</v>
+      </c>
+      <c r="I35">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J35">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N35">
+        <v>229.15831</v>
+      </c>
+      <c r="O35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q35">
+        <v>1400.051683043159</v>
+      </c>
+      <c r="R35">
+        <v>12600.46514738843</v>
+      </c>
+      <c r="S35">
+        <v>0.07804805165522559</v>
+      </c>
+      <c r="T35">
+        <v>0.0780480516552256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H36">
+        <v>54.985853</v>
+      </c>
+      <c r="I36">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J36">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N36">
+        <v>174.560658</v>
+      </c>
+      <c r="O36">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P36">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q36">
+        <v>1066.485186707919</v>
+      </c>
+      <c r="R36">
+        <v>9598.366680371273</v>
+      </c>
+      <c r="S36">
+        <v>0.05945287016889838</v>
+      </c>
+      <c r="T36">
+        <v>0.05945287016889839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>18.32861766666667</v>
+      </c>
+      <c r="H37">
+        <v>54.985853</v>
+      </c>
+      <c r="I37">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="J37">
+        <v>0.5758889947482273</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N37">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q37">
+        <v>2123.111770435753</v>
+      </c>
+      <c r="R37">
+        <v>19108.00593392177</v>
+      </c>
+      <c r="S37">
+        <v>0.1183561572302892</v>
+      </c>
+      <c r="T37">
+        <v>0.1183561572302892</v>
       </c>
     </row>
   </sheetData>
